--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1796,6 +1839,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1839,6 +1883,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1882,6 +1927,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1925,6 +1971,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1966,6 +2013,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2007,6 +2055,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2048,6 +2097,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2091,6 +2141,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,6 +2185,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2175,6 +2227,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2216,6 +2269,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2257,6 +2311,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2298,6 +2353,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2339,6 +2395,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2380,6 +2437,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,6 +2479,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2462,6 +2521,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2503,6 +2563,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2544,6 +2605,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2585,6 +2647,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2626,6 +2689,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2667,6 +2731,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2708,6 +2773,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2749,6 +2815,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2790,6 +2857,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2831,6 +2899,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2872,6 +2941,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2913,6 +2983,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2954,6 +3025,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2995,6 +3067,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3036,6 +3109,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3077,6 +3151,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3118,6 +3193,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3159,6 +3235,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3186,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
@@ -3194,11 +3271,14 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1</v>
+        <v>1.033621016467243</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.018286124058802</v>
       </c>
     </row>
     <row r="75">
@@ -3230,17 +3310,12 @@
         <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1.028052955810923</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3268,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3276,6 +3351,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3303,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3311,6 +3387,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3346,6 +3423,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3373,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3381,6 +3459,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3416,6 +3495,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3451,6 +3531,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3486,6 +3567,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3521,6 +3603,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3556,6 +3639,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3583,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3591,6 +3675,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3618,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3626,6 +3711,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3653,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3661,6 +3747,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3696,6 +3783,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3731,6 +3819,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3758,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3766,6 +3855,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3793,7 +3883,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3801,6 +3891,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3828,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3836,6 +3927,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3863,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3871,6 +3963,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3906,6 +3999,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3941,6 +4035,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3976,6 +4071,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4011,6 +4107,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4046,6 +4143,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4081,6 +4179,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4108,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4116,6 +4215,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4151,6 +4251,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4186,6 +4287,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4221,6 +4323,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,6 +4359,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4291,6 +4395,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4332,6 +4437,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4371,6 +4477,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>83.67</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>83.67</v>
+        <v>83.86</v>
       </c>
       <c r="D2" t="n">
-        <v>83.67</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>83.67</v>
+        <v>83.86</v>
       </c>
       <c r="F2" t="n">
-        <v>100</v>
+        <v>9449.340899999999</v>
       </c>
       <c r="G2" t="n">
-        <v>-246473.3933343412</v>
+        <v>12006.8918976788</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>83.67</v>
+        <v>84.03</v>
       </c>
       <c r="C3" t="n">
-        <v>83.67</v>
+        <v>84.69</v>
       </c>
       <c r="D3" t="n">
-        <v>83.67</v>
+        <v>84.69</v>
       </c>
       <c r="E3" t="n">
-        <v>83.67</v>
+        <v>84.03</v>
       </c>
       <c r="F3" t="n">
-        <v>540</v>
+        <v>20560.04</v>
       </c>
       <c r="G3" t="n">
-        <v>-246473.3933343412</v>
+        <v>32566.9318976788</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>83.86</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>84</v>
+        <v>83.86</v>
       </c>
       <c r="F4" t="n">
-        <v>536.4105</v>
+        <v>37158.0847</v>
       </c>
       <c r="G4" t="n">
-        <v>-245936.9828343412</v>
+        <v>-4591.152802321198</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>84</v>
       </c>
       <c r="F5" t="n">
-        <v>403.5573</v>
+        <v>182.5706</v>
       </c>
       <c r="G5" t="n">
-        <v>-245936.9828343412</v>
+        <v>-4408.582202321198</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83.77</v>
+        <v>83.86</v>
       </c>
       <c r="C6" t="n">
-        <v>83.67</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>83.77</v>
+        <v>83.86</v>
       </c>
       <c r="E6" t="n">
-        <v>83.67</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>2802.2778</v>
+        <v>37439.0264</v>
       </c>
       <c r="G6" t="n">
-        <v>-248739.2606343412</v>
+        <v>-41847.6086023212</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>84.2</v>
+        <v>83.5</v>
       </c>
       <c r="D7" t="n">
-        <v>84.2</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>83.5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>102882.261</v>
       </c>
       <c r="G7" t="n">
-        <v>-248729.2606343412</v>
+        <v>-144729.8696023212</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84.2</v>
+        <v>83.45</v>
       </c>
       <c r="C8" t="n">
-        <v>84.2</v>
+        <v>83.36</v>
       </c>
       <c r="D8" t="n">
-        <v>84.2</v>
+        <v>83.45</v>
       </c>
       <c r="E8" t="n">
-        <v>84.2</v>
+        <v>83.36</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>11309.6381</v>
       </c>
       <c r="G8" t="n">
-        <v>-248729.2606343412</v>
+        <v>-156039.5077023212</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84.2</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>84.2</v>
+        <v>83.31</v>
       </c>
       <c r="D9" t="n">
-        <v>84.2</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>84.2</v>
+        <v>83.31</v>
       </c>
       <c r="F9" t="n">
-        <v>259.7375</v>
+        <v>24987</v>
       </c>
       <c r="G9" t="n">
-        <v>-248729.2606343412</v>
+        <v>-181026.5077023212</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84.28</v>
+        <v>83.34</v>
       </c>
       <c r="C10" t="n">
-        <v>84.27</v>
+        <v>83.34</v>
       </c>
       <c r="D10" t="n">
-        <v>84.28</v>
+        <v>83.34</v>
       </c>
       <c r="E10" t="n">
-        <v>84.27</v>
+        <v>83.34</v>
       </c>
       <c r="F10" t="n">
-        <v>53.46647680075947</v>
+        <v>270.0238</v>
       </c>
       <c r="G10" t="n">
-        <v>-248675.7941575405</v>
+        <v>-180756.4839023212</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>84.33</v>
+        <v>83.5</v>
       </c>
       <c r="C11" t="n">
-        <v>84.33</v>
+        <v>84.08</v>
       </c>
       <c r="D11" t="n">
-        <v>84.33</v>
+        <v>84.08</v>
       </c>
       <c r="E11" t="n">
-        <v>84.33</v>
+        <v>83.5</v>
       </c>
       <c r="F11" t="n">
-        <v>25.2115</v>
+        <v>10.0001</v>
       </c>
       <c r="G11" t="n">
-        <v>-248650.5826575405</v>
+        <v>-180746.4838023212</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84.33</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>84.02</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>84.33</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>84.02</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>8010</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>-256660.5826575405</v>
+        <v>-180734.4838023212</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84.09999999999999</v>
+        <v>84.16</v>
       </c>
       <c r="C13" t="n">
-        <v>84.01000000000001</v>
+        <v>84.16</v>
       </c>
       <c r="D13" t="n">
-        <v>84.09999999999999</v>
+        <v>84.16</v>
       </c>
       <c r="E13" t="n">
-        <v>84.01000000000001</v>
+        <v>84.16</v>
       </c>
       <c r="F13" t="n">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-257560.5826575405</v>
+        <v>-180744.4838023212</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>84.01000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>84.01000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="D14" t="n">
-        <v>84.01000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>84.01000000000001</v>
+        <v>83.52</v>
       </c>
       <c r="F14" t="n">
-        <v>53.6568</v>
+        <v>1376.0553</v>
       </c>
       <c r="G14" t="n">
-        <v>-257560.5826575405</v>
+        <v>-182120.5391023212</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -909,28 +909,32 @@
         <v>84.01000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>83.8</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D15" t="n">
         <v>84.01000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>83.8</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>7920</v>
+        <v>2380.668967980002</v>
       </c>
       <c r="G15" t="n">
-        <v>-265480.5826575404</v>
+        <v>-179739.8701343412</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="K15" t="n">
+        <v>83.52</v>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -942,22 +946,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>83.90000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="C16" t="n">
-        <v>83.90000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="D16" t="n">
-        <v>83.90000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="E16" t="n">
-        <v>83.90000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="F16" t="n">
-        <v>186.8045</v>
+        <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>-265293.7781575404</v>
+        <v>-179727.8701343412</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +970,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,22 +988,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>83.90000000000001</v>
+        <v>83.61</v>
       </c>
       <c r="C17" t="n">
-        <v>83.90000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="D17" t="n">
-        <v>83.90000000000001</v>
+        <v>83.61</v>
       </c>
       <c r="E17" t="n">
-        <v>83.90000000000001</v>
+        <v>83.58</v>
       </c>
       <c r="F17" t="n">
-        <v>8000</v>
+        <v>14913.6456</v>
       </c>
       <c r="G17" t="n">
-        <v>-265293.7781575404</v>
+        <v>-194641.5157343412</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1012,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>83.52</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>83.90000000000001</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>531.1593</v>
+        <v>27043.4914</v>
       </c>
       <c r="G18" t="n">
-        <v>-265293.7781575404</v>
+        <v>-221685.0071343412</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>83.90000000000001</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>83.90000000000001</v>
+        <v>83.45</v>
       </c>
       <c r="D19" t="n">
-        <v>83.90000000000001</v>
+        <v>83.51000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>83.90000000000001</v>
+        <v>83.45</v>
       </c>
       <c r="F19" t="n">
-        <v>300</v>
+        <v>41394.2377</v>
       </c>
       <c r="G19" t="n">
-        <v>-265293.7781575404</v>
+        <v>-263079.2448343412</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1102,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>83.90000000000001</v>
+        <v>83.44</v>
       </c>
       <c r="C20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09</v>
       </c>
       <c r="D20" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09</v>
       </c>
       <c r="E20" t="n">
-        <v>83.90000000000001</v>
+        <v>83.39</v>
       </c>
       <c r="F20" t="n">
-        <v>135.8652</v>
+        <v>28006</v>
       </c>
       <c r="G20" t="n">
-        <v>-265293.7781575404</v>
+        <v>-235073.2448343412</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,32 +1138,38 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>84</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>84.26000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>84.26000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>84</v>
+        <v>83.34999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>839.0006</v>
+        <v>10980.1071</v>
       </c>
       <c r="G21" t="n">
-        <v>-264454.7775575404</v>
+        <v>-246053.3519343412</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>84.09</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1180,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>84</v>
+        <v>84.06</v>
       </c>
       <c r="C22" t="n">
-        <v>83.8</v>
+        <v>84.19</v>
       </c>
       <c r="D22" t="n">
-        <v>84</v>
+        <v>84.19</v>
       </c>
       <c r="E22" t="n">
-        <v>83.8</v>
+        <v>84.06</v>
       </c>
       <c r="F22" t="n">
-        <v>29667.366</v>
+        <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>-294122.1435575404</v>
+        <v>-246041.3519343412</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,7 +1205,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1220,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="C23" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="D23" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="E23" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="F23" t="n">
-        <v>1200</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>-292922.1435575404</v>
+        <v>-246041.3519343412</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1219,7 +1245,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1260,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>84.2</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>84.26000000000001</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>84.26000000000001</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>84.2</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>14171.8625</v>
+        <v>1037.5885</v>
       </c>
       <c r="G24" t="n">
-        <v>-292922.1435575404</v>
+        <v>-247078.9404343412</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1255,7 +1285,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1300,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="C25" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="D25" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="E25" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="F25" t="n">
-        <v>26130</v>
+        <v>1280</v>
       </c>
       <c r="G25" t="n">
-        <v>-292922.1435575404</v>
+        <v>-245798.9404343412</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1291,7 +1325,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1340,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="C26" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="D26" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="E26" t="n">
-        <v>84.26000000000001</v>
+        <v>84.19</v>
       </c>
       <c r="F26" t="n">
-        <v>10431.5138</v>
+        <v>9183.1175</v>
       </c>
       <c r="G26" t="n">
-        <v>-292922.1435575404</v>
+        <v>-245798.9404343412</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1327,7 +1365,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1380,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>84.69</v>
+        <v>84.06</v>
       </c>
       <c r="C27" t="n">
-        <v>84.09999999999999</v>
+        <v>84.06</v>
       </c>
       <c r="D27" t="n">
-        <v>84.69</v>
+        <v>84.06</v>
       </c>
       <c r="E27" t="n">
-        <v>84.09999999999999</v>
+        <v>84.06</v>
       </c>
       <c r="F27" t="n">
-        <v>5179.8098</v>
+        <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>-298101.9533575404</v>
+        <v>-246398.9404343412</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1363,7 +1405,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1420,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>84</v>
+        <v>84.06</v>
       </c>
       <c r="C28" t="n">
-        <v>84</v>
+        <v>84.06</v>
       </c>
       <c r="D28" t="n">
-        <v>84</v>
+        <v>84.06</v>
       </c>
       <c r="E28" t="n">
-        <v>84</v>
+        <v>84.06</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>7086.1689</v>
       </c>
       <c r="G28" t="n">
-        <v>-299101.9533575404</v>
+        <v>-246398.9404343412</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1399,7 +1445,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1460,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>84.08</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>84.08</v>
       </c>
       <c r="D29" t="n">
-        <v>84</v>
+        <v>84.08</v>
       </c>
       <c r="E29" t="n">
-        <v>84</v>
+        <v>84.08</v>
       </c>
       <c r="F29" t="n">
-        <v>1564.2139</v>
+        <v>15.5471</v>
       </c>
       <c r="G29" t="n">
-        <v>-299101.9533575404</v>
+        <v>-246383.3933343412</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1435,7 +1485,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1500,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>84.59999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>84.59999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>84.59999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>84.59999999999999</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>355.5273</v>
+        <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-298746.4260575403</v>
+        <v>-246373.3933343412</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1471,7 +1525,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1540,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>84.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="C31" t="n">
-        <v>85.17</v>
+        <v>83.67</v>
       </c>
       <c r="D31" t="n">
-        <v>85.17</v>
+        <v>83.67</v>
       </c>
       <c r="E31" t="n">
-        <v>84.73999999999999</v>
+        <v>83.67</v>
       </c>
       <c r="F31" t="n">
-        <v>5980</v>
+        <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>-292766.4260575403</v>
+        <v>-246473.3933343412</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1507,7 +1565,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1580,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>84.94</v>
+        <v>83.67</v>
       </c>
       <c r="C32" t="n">
-        <v>84.94</v>
+        <v>83.67</v>
       </c>
       <c r="D32" t="n">
-        <v>84.94</v>
+        <v>83.67</v>
       </c>
       <c r="E32" t="n">
-        <v>84.94</v>
+        <v>83.67</v>
       </c>
       <c r="F32" t="n">
-        <v>4000</v>
+        <v>540</v>
       </c>
       <c r="G32" t="n">
-        <v>-296766.4260575403</v>
+        <v>-246473.3933343412</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1543,7 +1605,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1620,38 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>85.05</v>
+        <v>84</v>
       </c>
       <c r="C33" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="D33" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="E33" t="n">
-        <v>85.05</v>
+        <v>84</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>536.4105</v>
       </c>
       <c r="G33" t="n">
-        <v>-286766.4260575403</v>
+        <v>-245936.9828343412</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>83.67</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1662,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="C34" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="D34" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="E34" t="n">
-        <v>85.2</v>
+        <v>84</v>
       </c>
       <c r="F34" t="n">
-        <v>12000</v>
+        <v>403.5573</v>
       </c>
       <c r="G34" t="n">
-        <v>-286766.4260575403</v>
+        <v>-245936.9828343412</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,7 +1687,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,22 +1702,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>84.7</v>
+        <v>83.77</v>
       </c>
       <c r="C35" t="n">
-        <v>84.7</v>
+        <v>83.67</v>
       </c>
       <c r="D35" t="n">
-        <v>84.7</v>
+        <v>83.77</v>
       </c>
       <c r="E35" t="n">
-        <v>84.7</v>
+        <v>83.67</v>
       </c>
       <c r="F35" t="n">
-        <v>8529.5232</v>
+        <v>2802.2778</v>
       </c>
       <c r="G35" t="n">
-        <v>-295295.9492575403</v>
+        <v>-248739.2606343412</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1651,7 +1727,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1742,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>84.41</v>
+        <v>84</v>
       </c>
       <c r="C36" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="D36" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="E36" t="n">
-        <v>84.41</v>
+        <v>84</v>
       </c>
       <c r="F36" t="n">
-        <v>359.904</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-295655.8532575403</v>
+        <v>-248729.2606343412</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>83.67</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,22 +1784,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="C37" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="D37" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="E37" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="F37" t="n">
-        <v>38.0996</v>
+        <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>-295655.8532575403</v>
+        <v>-248729.2606343412</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1723,7 +1809,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1824,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="C38" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="D38" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="E38" t="n">
-        <v>84.41</v>
+        <v>84.2</v>
       </c>
       <c r="F38" t="n">
-        <v>768.3131</v>
+        <v>259.7375</v>
       </c>
       <c r="G38" t="n">
-        <v>-295655.8532575403</v>
+        <v>-248729.2606343412</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1759,7 +1849,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1864,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>83.94</v>
+        <v>84.28</v>
       </c>
       <c r="C39" t="n">
-        <v>84.41</v>
+        <v>84.27</v>
       </c>
       <c r="D39" t="n">
-        <v>84.41</v>
+        <v>84.28</v>
       </c>
       <c r="E39" t="n">
-        <v>83.94</v>
+        <v>84.27</v>
       </c>
       <c r="F39" t="n">
-        <v>6901.7038</v>
+        <v>53.46647680075947</v>
       </c>
       <c r="G39" t="n">
-        <v>-295655.8532575403</v>
+        <v>-248675.7941575405</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,7 +1889,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,36 +1904,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>84.41</v>
+        <v>84.33</v>
       </c>
       <c r="C40" t="n">
-        <v>84.41</v>
+        <v>84.33</v>
       </c>
       <c r="D40" t="n">
-        <v>84.41</v>
+        <v>84.33</v>
       </c>
       <c r="E40" t="n">
-        <v>84.41</v>
+        <v>84.33</v>
       </c>
       <c r="F40" t="n">
-        <v>700.2827</v>
+        <v>25.2115</v>
       </c>
       <c r="G40" t="n">
-        <v>-295655.8532575403</v>
+        <v>-248650.5826575405</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K40" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1846,38 +1944,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.41</v>
+        <v>84.33</v>
       </c>
       <c r="C41" t="n">
-        <v>84.41</v>
+        <v>84.02</v>
       </c>
       <c r="D41" t="n">
-        <v>84.43000000000001</v>
+        <v>84.33</v>
       </c>
       <c r="E41" t="n">
-        <v>84.41</v>
+        <v>84.02</v>
       </c>
       <c r="F41" t="n">
-        <v>6833.355</v>
+        <v>8010</v>
       </c>
       <c r="G41" t="n">
-        <v>-295655.8532575403</v>
+        <v>-256660.5826575405</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K41" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
@@ -1890,35 +1984,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.33</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>84.33</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>84.33</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>84.33</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>610.5648</v>
+        <v>900</v>
       </c>
       <c r="G42" t="n">
-        <v>-296266.4180575403</v>
+        <v>-257560.5826575405</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K42" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1934,22 +2024,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.92</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>85.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>85.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>84.92</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>53.6568</v>
       </c>
       <c r="G43" t="n">
-        <v>-294266.4180575403</v>
+        <v>-257560.5826575405</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1958,11 +2048,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>84.33</v>
-      </c>
-      <c r="K43" t="n">
-        <v>84.41</v>
-      </c>
+        <v>84.01000000000001</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1978,33 +2066,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>84.5</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>84.59999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="D44" t="n">
-        <v>84.59999999999999</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>84.5</v>
+        <v>83.8</v>
       </c>
       <c r="F44" t="n">
-        <v>9974.999900000001</v>
+        <v>7920</v>
       </c>
       <c r="G44" t="n">
-        <v>-304241.4179575403</v>
+        <v>-265480.5826575404</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J44" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,33 +2108,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>179.5726</v>
+        <v>186.8045</v>
       </c>
       <c r="G45" t="n">
-        <v>-304241.4179575403</v>
+        <v>-265293.7781575404</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J45" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2062,33 +2150,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>84.59999999999999</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>98.7731</v>
+        <v>8000</v>
       </c>
       <c r="G46" t="n">
-        <v>-304241.4179575403</v>
+        <v>-265293.7781575404</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J46" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,22 +2192,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>84.69</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>84.69</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>84.69</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>84.69</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>98.7731</v>
+        <v>531.1593</v>
       </c>
       <c r="G47" t="n">
-        <v>-304142.6448575403</v>
+        <v>-265293.7781575404</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -2128,11 +2216,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="K47" t="n">
-        <v>84.41</v>
-      </c>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2148,22 +2234,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="G48" t="n">
-        <v>-304047.6448575403</v>
+        <v>-265293.7781575404</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2172,11 +2258,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="K48" t="n">
-        <v>84.41</v>
-      </c>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,33 +2276,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>85.12</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>5804.9639</v>
+        <v>135.8652</v>
       </c>
       <c r="G49" t="n">
-        <v>-304047.6448575403</v>
+        <v>-265293.7781575404</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J49" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,33 +2318,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>85.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="C50" t="n">
-        <v>85.90000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>85.90000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>85.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="F50" t="n">
-        <v>6608.7698</v>
+        <v>839.0006</v>
       </c>
       <c r="G50" t="n">
-        <v>-297438.8750575403</v>
+        <v>-264454.7775575404</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J50" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,33 +2360,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>85.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="C51" t="n">
-        <v>85.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="D51" t="n">
-        <v>85.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="E51" t="n">
-        <v>85.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="F51" t="n">
-        <v>804.7257</v>
+        <v>29667.366</v>
       </c>
       <c r="G51" t="n">
-        <v>-297438.8750575403</v>
+        <v>-294122.1435575404</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J51" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,33 +2402,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>86</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>86</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>86</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>86</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>6818.7302</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="n">
-        <v>-290620.1448575403</v>
+        <v>-292922.1435575404</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J52" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,22 +2444,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>86.14</v>
+        <v>84.2</v>
       </c>
       <c r="C53" t="n">
-        <v>86.17</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>86.17</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>86.04000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="F53" t="n">
-        <v>40832.5111</v>
+        <v>14171.8625</v>
       </c>
       <c r="G53" t="n">
-        <v>-249787.6337575403</v>
+        <v>-292922.1435575404</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2384,9 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,22 +2484,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>86.17</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>86.02</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>86.43000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>86.02</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>9915.1567</v>
+        <v>26130</v>
       </c>
       <c r="G54" t="n">
-        <v>-259702.7904575403</v>
+        <v>-292922.1435575404</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2426,9 +2508,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,22 +2524,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>86.43000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>86.04000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>86.69</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>86.04000000000001</v>
+        <v>84.26000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>1240</v>
+        <v>10431.5138</v>
       </c>
       <c r="G55" t="n">
-        <v>-258462.7904575403</v>
+        <v>-292922.1435575404</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2468,9 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,22 +2564,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>86.20999999999999</v>
+        <v>84.69</v>
       </c>
       <c r="C56" t="n">
-        <v>86.26000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>86.26000000000001</v>
+        <v>84.69</v>
       </c>
       <c r="E56" t="n">
-        <v>86.20999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>5182.1269</v>
+        <v>5179.8098</v>
       </c>
       <c r="G56" t="n">
-        <v>-253280.6635575403</v>
+        <v>-298101.9533575404</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2510,9 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,22 +2604,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>86.23999999999999</v>
+        <v>84</v>
       </c>
       <c r="C57" t="n">
-        <v>86.23999999999999</v>
+        <v>84</v>
       </c>
       <c r="D57" t="n">
-        <v>86.23999999999999</v>
+        <v>84</v>
       </c>
       <c r="E57" t="n">
-        <v>86.23999999999999</v>
+        <v>84</v>
       </c>
       <c r="F57" t="n">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-261280.6635575403</v>
+        <v>-299101.9533575404</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2552,9 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,22 +2644,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>86.2</v>
+        <v>84</v>
       </c>
       <c r="C58" t="n">
-        <v>86.16</v>
+        <v>84</v>
       </c>
       <c r="D58" t="n">
-        <v>86.2</v>
+        <v>84</v>
       </c>
       <c r="E58" t="n">
-        <v>86.16</v>
+        <v>84</v>
       </c>
       <c r="F58" t="n">
-        <v>2000</v>
+        <v>1564.2139</v>
       </c>
       <c r="G58" t="n">
-        <v>-263280.6635575403</v>
+        <v>-299101.9533575404</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2594,9 +2668,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,22 +2684,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>86.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>86.92</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>86.92</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>86.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>20486.132</v>
+        <v>355.5273</v>
       </c>
       <c r="G59" t="n">
-        <v>-242794.5315575403</v>
+        <v>-298746.4260575403</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2636,9 +2708,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,22 +2724,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>86.92</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>86.92</v>
+        <v>85.17</v>
       </c>
       <c r="D60" t="n">
-        <v>86.92</v>
+        <v>85.17</v>
       </c>
       <c r="E60" t="n">
-        <v>86.92</v>
+        <v>84.73999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>2727.6578</v>
+        <v>5980</v>
       </c>
       <c r="G60" t="n">
-        <v>-242794.5315575403</v>
+        <v>-292766.4260575403</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2678,9 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,22 +2764,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>86.92</v>
+        <v>84.94</v>
       </c>
       <c r="C61" t="n">
-        <v>86.92</v>
+        <v>84.94</v>
       </c>
       <c r="D61" t="n">
-        <v>86.92</v>
+        <v>84.94</v>
       </c>
       <c r="E61" t="n">
-        <v>86.92</v>
+        <v>84.94</v>
       </c>
       <c r="F61" t="n">
-        <v>1466.8617</v>
+        <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>-242794.5315575403</v>
+        <v>-296766.4260575403</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2720,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,22 +2804,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>86.92</v>
+        <v>85.05</v>
       </c>
       <c r="C62" t="n">
-        <v>87.56999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D62" t="n">
-        <v>87.56999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="E62" t="n">
-        <v>86.92</v>
+        <v>85.05</v>
       </c>
       <c r="F62" t="n">
-        <v>12609.1407</v>
+        <v>10000</v>
       </c>
       <c r="G62" t="n">
-        <v>-230185.3908575403</v>
+        <v>-286766.4260575403</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2762,9 +2828,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,22 +2844,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>87.2</v>
+        <v>85.2</v>
       </c>
       <c r="C63" t="n">
-        <v>87.45999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="D63" t="n">
-        <v>87.45999999999999</v>
+        <v>85.2</v>
       </c>
       <c r="E63" t="n">
-        <v>87.02</v>
+        <v>85.2</v>
       </c>
       <c r="F63" t="n">
-        <v>19455.029819689</v>
+        <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>-249640.4206772293</v>
+        <v>-286766.4260575403</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2804,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,22 +2884,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>87.03</v>
+        <v>84.7</v>
       </c>
       <c r="C64" t="n">
-        <v>87.2</v>
+        <v>84.7</v>
       </c>
       <c r="D64" t="n">
-        <v>87.2</v>
+        <v>84.7</v>
       </c>
       <c r="E64" t="n">
-        <v>87.03</v>
+        <v>84.7</v>
       </c>
       <c r="F64" t="n">
-        <v>4554.633027522936</v>
+        <v>8529.5232</v>
       </c>
       <c r="G64" t="n">
-        <v>-254195.0537047522</v>
+        <v>-295295.9492575403</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2846,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,22 +2924,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>87.19</v>
+        <v>84.41</v>
       </c>
       <c r="C65" t="n">
-        <v>87.2</v>
+        <v>84.41</v>
       </c>
       <c r="D65" t="n">
-        <v>87.2</v>
+        <v>84.41</v>
       </c>
       <c r="E65" t="n">
-        <v>87.19</v>
+        <v>84.41</v>
       </c>
       <c r="F65" t="n">
-        <v>11930</v>
+        <v>359.904</v>
       </c>
       <c r="G65" t="n">
-        <v>-254195.0537047522</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2888,9 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,22 +2964,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>87.19</v>
+        <v>84.41</v>
       </c>
       <c r="C66" t="n">
-        <v>87.58</v>
+        <v>84.41</v>
       </c>
       <c r="D66" t="n">
-        <v>87.58</v>
+        <v>84.41</v>
       </c>
       <c r="E66" t="n">
-        <v>87.19</v>
+        <v>84.41</v>
       </c>
       <c r="F66" t="n">
-        <v>14292.83157247706</v>
+        <v>38.0996</v>
       </c>
       <c r="G66" t="n">
-        <v>-239902.2221322751</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2930,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,22 +3004,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>87.67</v>
+        <v>84.41</v>
       </c>
       <c r="C67" t="n">
-        <v>87.67</v>
+        <v>84.41</v>
       </c>
       <c r="D67" t="n">
-        <v>87.67</v>
+        <v>84.41</v>
       </c>
       <c r="E67" t="n">
-        <v>87.67</v>
+        <v>84.41</v>
       </c>
       <c r="F67" t="n">
-        <v>12370.8314</v>
+        <v>768.3131</v>
       </c>
       <c r="G67" t="n">
-        <v>-227531.3907322751</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2972,9 +3028,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,33 +3044,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>87.68000000000001</v>
+        <v>83.94</v>
       </c>
       <c r="C68" t="n">
-        <v>86.77</v>
+        <v>84.41</v>
       </c>
       <c r="D68" t="n">
-        <v>87.68000000000001</v>
+        <v>84.41</v>
       </c>
       <c r="E68" t="n">
-        <v>86.77</v>
+        <v>83.94</v>
       </c>
       <c r="F68" t="n">
-        <v>8500</v>
+        <v>6901.7038</v>
       </c>
       <c r="G68" t="n">
-        <v>-236031.3907322751</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="J68" t="n">
         <v>84.41</v>
       </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,33 +3086,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>86.51000000000001</v>
+        <v>84.41</v>
       </c>
       <c r="C69" t="n">
-        <v>86.51000000000001</v>
+        <v>84.41</v>
       </c>
       <c r="D69" t="n">
-        <v>86.51000000000001</v>
+        <v>84.41</v>
       </c>
       <c r="E69" t="n">
-        <v>86.51000000000001</v>
+        <v>84.41</v>
       </c>
       <c r="F69" t="n">
-        <v>9473.913399999999</v>
+        <v>700.2827</v>
       </c>
       <c r="G69" t="n">
-        <v>-245505.3041322751</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
+      <c r="J69" t="n">
         <v>84.41</v>
       </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,33 +3128,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>87.31</v>
+        <v>84.41</v>
       </c>
       <c r="C70" t="n">
-        <v>87.58</v>
+        <v>84.41</v>
       </c>
       <c r="D70" t="n">
-        <v>87.58</v>
+        <v>84.43000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>87.31</v>
+        <v>84.41</v>
       </c>
       <c r="F70" t="n">
-        <v>20103.34262626599</v>
+        <v>6833.355</v>
       </c>
       <c r="G70" t="n">
-        <v>-225401.9615060092</v>
+        <v>-295655.8532575403</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
+      <c r="J70" t="n">
         <v>84.41</v>
       </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,33 +3170,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>87</v>
+        <v>84.33</v>
       </c>
       <c r="C71" t="n">
-        <v>87</v>
+        <v>84.33</v>
       </c>
       <c r="D71" t="n">
-        <v>87</v>
+        <v>84.33</v>
       </c>
       <c r="E71" t="n">
-        <v>87</v>
+        <v>84.33</v>
       </c>
       <c r="F71" t="n">
-        <v>3846.698</v>
+        <v>610.5648</v>
       </c>
       <c r="G71" t="n">
-        <v>-229248.6595060092</v>
+        <v>-296266.4180575403</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
+      <c r="J71" t="n">
         <v>84.41</v>
       </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3158,33 +3212,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>87</v>
+        <v>84.92</v>
       </c>
       <c r="C72" t="n">
-        <v>87</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>87</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>87</v>
+        <v>84.92</v>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>-229248.6595060092</v>
+        <v>-294266.4180575403</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="J72" t="n">
+        <v>84.33</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,22 +3254,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>87</v>
+        <v>84.5</v>
       </c>
       <c r="C73" t="n">
-        <v>87.55</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>87.55</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>87</v>
+        <v>84.5</v>
       </c>
       <c r="F73" t="n">
-        <v>1786.1864</v>
+        <v>9974.999900000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-227462.4731060092</v>
+        <v>-304241.4179575403</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3224,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,76 +3294,76 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>87.67</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>87.67</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>87.67</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>87.67</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>179.5726</v>
       </c>
       <c r="G74" t="n">
-        <v>-227362.4731060092</v>
+        <v>-304241.4179575403</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>84.41</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1.033621016467243</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1.018286124058802</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>87.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>87.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>87.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>87.2</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>2322.9999</v>
+        <v>98.7731</v>
       </c>
       <c r="G75" t="n">
-        <v>-229685.4730060092</v>
+        <v>-304241.4179575403</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3322,32 +3374,36 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>87.2</v>
+        <v>84.69</v>
       </c>
       <c r="C76" t="n">
-        <v>87.61</v>
+        <v>84.69</v>
       </c>
       <c r="D76" t="n">
-        <v>87.61</v>
+        <v>84.69</v>
       </c>
       <c r="E76" t="n">
-        <v>87.2</v>
+        <v>84.69</v>
       </c>
       <c r="F76" t="n">
-        <v>5690.211355689989</v>
+        <v>98.7731</v>
       </c>
       <c r="G76" t="n">
-        <v>-223995.2616503192</v>
+        <v>-304142.6448575403</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3358,32 +3414,36 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>87.59</v>
+        <v>85.12</v>
       </c>
       <c r="C77" t="n">
-        <v>87.59</v>
+        <v>85.12</v>
       </c>
       <c r="D77" t="n">
-        <v>87.59</v>
+        <v>85.12</v>
       </c>
       <c r="E77" t="n">
-        <v>87.59</v>
+        <v>85.12</v>
       </c>
       <c r="F77" t="n">
-        <v>848.2361000114169</v>
+        <v>95</v>
       </c>
       <c r="G77" t="n">
-        <v>-224843.4977503306</v>
+        <v>-304047.6448575403</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3394,32 +3454,36 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>87</v>
+        <v>85.12</v>
       </c>
       <c r="C78" t="n">
-        <v>87</v>
+        <v>85.12</v>
       </c>
       <c r="D78" t="n">
-        <v>87</v>
+        <v>85.12</v>
       </c>
       <c r="E78" t="n">
-        <v>87</v>
+        <v>85.12</v>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>5804.9639</v>
       </c>
       <c r="G78" t="n">
-        <v>-224943.4977503306</v>
+        <v>-304047.6448575403</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3430,32 +3494,36 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>87.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>87.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>87.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>87.5</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>6608.7698</v>
       </c>
       <c r="G79" t="n">
-        <v>-224933.4977503306</v>
+        <v>-297438.8750575403</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3466,32 +3534,36 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>87.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>87.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>87.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>87.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>13563.0689</v>
+        <v>804.7257</v>
       </c>
       <c r="G80" t="n">
-        <v>-238496.5666503306</v>
+        <v>-297438.8750575403</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3502,32 +3574,36 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>87.19</v>
+        <v>86</v>
       </c>
       <c r="C81" t="n">
-        <v>87.19</v>
+        <v>86</v>
       </c>
       <c r="D81" t="n">
-        <v>87.19</v>
+        <v>86</v>
       </c>
       <c r="E81" t="n">
-        <v>87.19</v>
+        <v>86</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>6818.7302</v>
       </c>
       <c r="G81" t="n">
-        <v>-239496.5666503306</v>
+        <v>-290620.1448575403</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3538,32 +3614,36 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>87.19</v>
+        <v>86.14</v>
       </c>
       <c r="C82" t="n">
-        <v>87.19</v>
+        <v>86.17</v>
       </c>
       <c r="D82" t="n">
-        <v>87.19</v>
+        <v>86.17</v>
       </c>
       <c r="E82" t="n">
-        <v>87.19</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>1830.5491</v>
+        <v>40832.5111</v>
       </c>
       <c r="G82" t="n">
-        <v>-239496.5666503306</v>
+        <v>-249787.6337575403</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3574,32 +3654,36 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>87.19</v>
+        <v>86.17</v>
       </c>
       <c r="C83" t="n">
-        <v>87.19</v>
+        <v>86.02</v>
       </c>
       <c r="D83" t="n">
-        <v>87.19</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>87.19</v>
+        <v>86.02</v>
       </c>
       <c r="F83" t="n">
-        <v>407.1221</v>
+        <v>9915.1567</v>
       </c>
       <c r="G83" t="n">
-        <v>-239496.5666503306</v>
+        <v>-259702.7904575403</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3610,32 +3694,36 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>86.61</v>
+        <v>86.43000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>86.5</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>86.61</v>
+        <v>86.69</v>
       </c>
       <c r="E84" t="n">
-        <v>86.5</v>
+        <v>86.04000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>6000</v>
+        <v>1240</v>
       </c>
       <c r="G84" t="n">
-        <v>-245496.5666503306</v>
+        <v>-258462.7904575403</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3646,32 +3734,36 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>86.95999999999999</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>86.59999999999999</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>86.95999999999999</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>86.59999999999999</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>760</v>
+        <v>5182.1269</v>
       </c>
       <c r="G85" t="n">
-        <v>-244736.5666503306</v>
+        <v>-253280.6635575403</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3682,32 +3774,36 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>86.59999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>86.59999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>86.59999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>86.59999999999999</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>3058.4902</v>
+        <v>8000</v>
       </c>
       <c r="G86" t="n">
-        <v>-244736.5666503306</v>
+        <v>-261280.6635575403</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3718,32 +3814,36 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="C87" t="n">
-        <v>87</v>
+        <v>86.16</v>
       </c>
       <c r="D87" t="n">
-        <v>87</v>
+        <v>86.2</v>
       </c>
       <c r="E87" t="n">
-        <v>87</v>
+        <v>86.16</v>
       </c>
       <c r="F87" t="n">
-        <v>2089.3747</v>
+        <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>-242647.1919503306</v>
+        <v>-263280.6635575403</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3754,32 +3854,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>87</v>
+        <v>86.7</v>
       </c>
       <c r="C88" t="n">
-        <v>87</v>
+        <v>86.92</v>
       </c>
       <c r="D88" t="n">
-        <v>87</v>
+        <v>86.92</v>
       </c>
       <c r="E88" t="n">
-        <v>87</v>
+        <v>86.7</v>
       </c>
       <c r="F88" t="n">
-        <v>6387.2947</v>
+        <v>20486.132</v>
       </c>
       <c r="G88" t="n">
-        <v>-242647.1919503306</v>
+        <v>-242794.5315575403</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3790,32 +3894,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>86.59999999999999</v>
+        <v>86.92</v>
       </c>
       <c r="C89" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="D89" t="n">
-        <v>86.59999999999999</v>
+        <v>86.92</v>
       </c>
       <c r="E89" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="F89" t="n">
-        <v>12010</v>
+        <v>2727.6578</v>
       </c>
       <c r="G89" t="n">
-        <v>-254657.1919503306</v>
+        <v>-242794.5315575403</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3826,32 +3934,36 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="C90" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="D90" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="E90" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="F90" t="n">
-        <v>12698</v>
+        <v>1466.8617</v>
       </c>
       <c r="G90" t="n">
-        <v>-254657.1919503306</v>
+        <v>-242794.5315575403</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3862,32 +3974,36 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>86.5</v>
+        <v>86.92</v>
       </c>
       <c r="C91" t="n">
-        <v>86.38</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>86.5</v>
+        <v>87.56999999999999</v>
       </c>
       <c r="E91" t="n">
-        <v>86.38</v>
+        <v>86.92</v>
       </c>
       <c r="F91" t="n">
-        <v>1997.7</v>
+        <v>12609.1407</v>
       </c>
       <c r="G91" t="n">
-        <v>-256654.8919503306</v>
+        <v>-230185.3908575403</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3898,22 +4014,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>86.38</v>
+        <v>87.2</v>
       </c>
       <c r="C92" t="n">
-        <v>86.38</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>86.38</v>
+        <v>87.45999999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>86.38</v>
+        <v>87.02</v>
       </c>
       <c r="F92" t="n">
-        <v>9600</v>
+        <v>19455.029819689</v>
       </c>
       <c r="G92" t="n">
-        <v>-256654.8919503306</v>
+        <v>-249640.4206772293</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3923,10 +4039,12 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
@@ -3934,22 +4052,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>86.18000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="C93" t="n">
-        <v>86.18000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="D93" t="n">
-        <v>86.18000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="E93" t="n">
-        <v>86.18000000000001</v>
+        <v>87.03</v>
       </c>
       <c r="F93" t="n">
-        <v>362.3165</v>
+        <v>4554.633027522936</v>
       </c>
       <c r="G93" t="n">
-        <v>-257017.2084503306</v>
+        <v>-254195.0537047522</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3970,28 +4088,28 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>85.70999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C94" t="n">
-        <v>86.31999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="D94" t="n">
-        <v>86.31999999999999</v>
+        <v>87.2</v>
       </c>
       <c r="E94" t="n">
-        <v>85.70999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="F94" t="n">
-        <v>25333.5</v>
+        <v>11930</v>
       </c>
       <c r="G94" t="n">
-        <v>-231683.7084503306</v>
+        <v>-254195.0537047522</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -4006,28 +4124,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>86.31999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C95" t="n">
-        <v>86</v>
+        <v>87.58</v>
       </c>
       <c r="D95" t="n">
-        <v>86.31999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="E95" t="n">
-        <v>86</v>
+        <v>87.19</v>
       </c>
       <c r="F95" t="n">
-        <v>844.1835</v>
+        <v>14292.83157247706</v>
       </c>
       <c r="G95" t="n">
-        <v>-232527.8919503306</v>
+        <v>-239902.2221322751</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4042,28 +4160,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>86.43000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="C96" t="n">
-        <v>86.43000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="D96" t="n">
-        <v>86.43000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="E96" t="n">
-        <v>86.43000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="F96" t="n">
-        <v>1005.7851</v>
+        <v>12370.8314</v>
       </c>
       <c r="G96" t="n">
-        <v>-231522.1068503306</v>
+        <v>-227531.3907322751</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4078,28 +4196,28 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>86.31999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>86.31999999999999</v>
+        <v>86.77</v>
       </c>
       <c r="D97" t="n">
-        <v>86.31999999999999</v>
+        <v>87.68000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>86.31999999999999</v>
+        <v>86.77</v>
       </c>
       <c r="F97" t="n">
-        <v>13.1667</v>
+        <v>8500</v>
       </c>
       <c r="G97" t="n">
-        <v>-231535.2735503306</v>
+        <v>-236031.3907322751</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
@@ -4114,28 +4232,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>86.31999999999999</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>86.31999999999999</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>86.31999999999999</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>86.31999999999999</v>
+        <v>86.51000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>14171.0919</v>
+        <v>9473.913399999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-231535.2735503306</v>
+        <v>-245505.3041322751</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -4150,22 +4268,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>86.48</v>
+        <v>87.31</v>
       </c>
       <c r="C99" t="n">
-        <v>86.48999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="D99" t="n">
-        <v>86.48999999999999</v>
+        <v>87.58</v>
       </c>
       <c r="E99" t="n">
-        <v>86.48</v>
+        <v>87.31</v>
       </c>
       <c r="F99" t="n">
-        <v>10000</v>
+        <v>20103.34262626599</v>
       </c>
       <c r="G99" t="n">
-        <v>-221535.2735503306</v>
+        <v>-225401.9615060092</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4186,22 +4304,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>86.20999999999999</v>
+        <v>87</v>
       </c>
       <c r="C100" t="n">
-        <v>86.11</v>
+        <v>87</v>
       </c>
       <c r="D100" t="n">
-        <v>86.20999999999999</v>
+        <v>87</v>
       </c>
       <c r="E100" t="n">
-        <v>86.11</v>
+        <v>87</v>
       </c>
       <c r="F100" t="n">
-        <v>20279.496</v>
+        <v>3846.698</v>
       </c>
       <c r="G100" t="n">
-        <v>-241814.7695503306</v>
+        <v>-229248.6595060092</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4222,22 +4340,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C101" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D101" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E101" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F101" t="n">
-        <v>10463.1175</v>
+        <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>-252277.8870503306</v>
+        <v>-229248.6595060092</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4258,22 +4376,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C102" t="n">
-        <v>85.76000000000001</v>
+        <v>87.55</v>
       </c>
       <c r="D102" t="n">
-        <v>86</v>
+        <v>87.55</v>
       </c>
       <c r="E102" t="n">
-        <v>85.76000000000001</v>
+        <v>87</v>
       </c>
       <c r="F102" t="n">
-        <v>600.4048</v>
+        <v>1786.1864</v>
       </c>
       <c r="G102" t="n">
-        <v>-252878.2918503306</v>
+        <v>-227462.4731060092</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4294,22 +4412,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>85.76000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="C103" t="n">
-        <v>85.76000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="D103" t="n">
-        <v>85.76000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="E103" t="n">
-        <v>85.76000000000001</v>
+        <v>87.67</v>
       </c>
       <c r="F103" t="n">
-        <v>9701.2039</v>
+        <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-252878.2918503306</v>
+        <v>-227362.4731060092</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4330,28 +4448,28 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>85.76000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="C104" t="n">
-        <v>85.33</v>
+        <v>87.2</v>
       </c>
       <c r="D104" t="n">
-        <v>85.76000000000001</v>
+        <v>87.2</v>
       </c>
       <c r="E104" t="n">
-        <v>85.33</v>
+        <v>87.2</v>
       </c>
       <c r="F104" t="n">
-        <v>32623.0501</v>
+        <v>2322.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>-285501.3419503306</v>
+        <v>-229685.4730060092</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4366,22 +4484,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>85.33</v>
+        <v>87.2</v>
       </c>
       <c r="C105" t="n">
-        <v>86.3</v>
+        <v>87.61</v>
       </c>
       <c r="D105" t="n">
-        <v>86.3</v>
+        <v>87.61</v>
       </c>
       <c r="E105" t="n">
-        <v>85.33</v>
+        <v>87.2</v>
       </c>
       <c r="F105" t="n">
-        <v>2382</v>
+        <v>5690.211355689989</v>
       </c>
       <c r="G105" t="n">
-        <v>-283119.3419503306</v>
+        <v>-223995.2616503192</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4402,38 +4520,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>86.29000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="C106" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="D106" t="n">
-        <v>86.40000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="E106" t="n">
-        <v>86.29000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="F106" t="n">
-        <v>100</v>
+        <v>848.2361000114169</v>
       </c>
       <c r="G106" t="n">
-        <v>-283019.3419503306</v>
+        <v>-224843.4977503306</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>86.3</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4444,22 +4556,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>86.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="C107" t="n">
-        <v>86.7</v>
+        <v>87</v>
       </c>
       <c r="D107" t="n">
-        <v>86.7</v>
+        <v>87</v>
       </c>
       <c r="E107" t="n">
-        <v>86.59999999999999</v>
+        <v>87</v>
       </c>
       <c r="F107" t="n">
-        <v>5181.636</v>
+        <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-277837.7059503306</v>
+        <v>-224943.4977503306</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4469,15 +4581,1055 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="E108" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-224933.4977503306</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>13563.0689</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-238496.5666503306</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="C110" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="D110" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="E110" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-239496.5666503306</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="C111" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="D111" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="E111" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1830.5491</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-239496.5666503306</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="C112" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="D112" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="E112" t="n">
+        <v>87.19</v>
+      </c>
+      <c r="F112" t="n">
+        <v>407.1221</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-239496.5666503306</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="C113" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>86.61</v>
+      </c>
+      <c r="E113" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-245496.5666503306</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D114" t="n">
+        <v>86.95999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F114" t="n">
+        <v>760</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-244736.5666503306</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="E115" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3058.4902</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-244736.5666503306</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>87</v>
+      </c>
+      <c r="C116" t="n">
+        <v>87</v>
+      </c>
+      <c r="D116" t="n">
+        <v>87</v>
+      </c>
+      <c r="E116" t="n">
+        <v>87</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2089.3747</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-242647.1919503306</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>87</v>
+      </c>
+      <c r="C117" t="n">
+        <v>87</v>
+      </c>
+      <c r="D117" t="n">
+        <v>87</v>
+      </c>
+      <c r="E117" t="n">
+        <v>87</v>
+      </c>
+      <c r="F117" t="n">
+        <v>6387.2947</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-242647.1919503306</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="E118" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12010</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-254657.1919503306</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12698</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-254657.1919503306</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="C120" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="D120" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E120" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1997.7</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-256654.8919503306</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="C121" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="D121" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="E121" t="n">
+        <v>86.38</v>
+      </c>
+      <c r="F121" t="n">
+        <v>9600</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-256654.8919503306</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="D122" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="E122" t="n">
+        <v>86.18000000000001</v>
+      </c>
+      <c r="F122" t="n">
+        <v>362.3165</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-257017.2084503306</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="D123" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>85.70999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>25333.5</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-231683.7084503306</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>86</v>
+      </c>
+      <c r="D124" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="E124" t="n">
+        <v>86</v>
+      </c>
+      <c r="F124" t="n">
+        <v>844.1835</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-232527.8919503306</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="D125" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="E125" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1005.7851</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-231522.1068503306</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="D126" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="E126" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>13.1667</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-231535.2735503306</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="D127" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="E127" t="n">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="F127" t="n">
+        <v>14171.0919</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-231535.2735503306</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>86.48</v>
+      </c>
+      <c r="C128" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="D128" t="n">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="E128" t="n">
+        <v>86.48</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-221535.2735503306</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="D129" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="E129" t="n">
+        <v>86.11</v>
+      </c>
+      <c r="F129" t="n">
+        <v>20279.496</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-241814.7695503306</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>86</v>
+      </c>
+      <c r="C130" t="n">
+        <v>86</v>
+      </c>
+      <c r="D130" t="n">
+        <v>86</v>
+      </c>
+      <c r="E130" t="n">
+        <v>86</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10463.1175</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-252277.8870503306</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>86</v>
+      </c>
+      <c r="C131" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>86</v>
+      </c>
+      <c r="E131" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>600.4048</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-252878.2918503306</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>9701.2039</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-252878.2918503306</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="C133" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="D133" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="E133" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F133" t="n">
+        <v>32623.0501</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-285501.3419503306</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="C134" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="D134" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="E134" t="n">
+        <v>85.33</v>
+      </c>
+      <c r="F134" t="n">
+        <v>2382</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-283119.3419503306</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>86.29000000000001</v>
+      </c>
+      <c r="F135" t="n">
+        <v>100</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-283019.3419503306</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5181.636</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-277837.7059503306</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,22 +880,15 @@
         <v>-179739.8701343412</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="K15" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -966,22 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1008,22 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>83.52</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1156,24 +1078,15 @@
         <v>-246053.3519343412</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>84.09</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,20 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1240,20 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1280,20 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1320,20 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,20 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1400,20 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1440,20 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1480,20 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,20 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1560,20 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1600,20 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1638,24 +1474,15 @@
         <v>-245936.9828343412</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>83.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1682,20 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1722,20 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1760,24 +1573,15 @@
         <v>-248729.2606343412</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>83.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1804,20 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,20 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1884,20 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1924,20 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1964,20 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2004,20 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2042,24 +1804,15 @@
         <v>-257560.5826575405</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>84.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2084,24 +1837,15 @@
         <v>-265480.5826575404</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>84.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2126,24 +1870,19 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>83.8</v>
       </c>
       <c r="J45" t="n">
         <v>83.8</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2168,24 +1907,23 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>83.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2210,24 +1948,23 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>83.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2252,24 +1989,19 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J48" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2294,24 +2026,23 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="J49" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2336,24 +2067,21 @@
         <v>-264454.7775575404</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2378,24 +2106,15 @@
         <v>-294122.1435575404</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2420,24 +2139,19 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>83.8</v>
       </c>
       <c r="J52" t="n">
         <v>83.8</v>
       </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2464,20 +2178,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2502,22 +2215,23 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>84.26000000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2542,22 +2256,19 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>84.26000000000001</v>
+      </c>
+      <c r="J55" t="n">
+        <v>84.26000000000001</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2584,20 +2295,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2624,20 +2334,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2664,20 +2373,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2704,20 +2412,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2744,20 +2451,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2784,20 +2490,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2824,20 +2529,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2864,20 +2568,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2904,20 +2607,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2944,20 +2646,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2984,20 +2685,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3024,20 +2724,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3062,24 +2761,23 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>84.41</v>
       </c>
       <c r="J68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3104,24 +2802,23 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>84.41</v>
       </c>
       <c r="J69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3146,24 +2843,23 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>84.41</v>
       </c>
       <c r="J70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3188,24 +2884,23 @@
         <v>-296266.4180575403</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>84.41</v>
       </c>
       <c r="J71" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3230,24 +2925,23 @@
         <v>-294266.4180575403</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>84.33</v>
       </c>
       <c r="J72" t="n">
-        <v>84.33</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3272,22 +2966,23 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
+        <v>85.01000000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3312,22 +3007,23 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3352,22 +3048,23 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="J75" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3392,22 +3089,23 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3432,22 +3130,23 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
+        <v>84.69</v>
+      </c>
+      <c r="J77" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3472,22 +3171,23 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
+        <v>85.12</v>
+      </c>
+      <c r="J78" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3514,20 +3214,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3554,20 +3253,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3594,20 +3292,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3634,20 +3331,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3674,20 +3370,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3712,22 +3407,21 @@
         <v>-258462.7904575403</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3754,20 +3448,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3794,20 +3487,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3834,20 +3526,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3872,22 +3563,21 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3914,20 +3604,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3954,20 +3643,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3992,22 +3680,21 @@
         <v>-230185.3908575403</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.034283171136957</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4032,20 +3719,15 @@
         <v>-249640.4206772293</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L92" t="n">
+        <v>1</v>
       </c>
       <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4070,18 +3752,15 @@
         <v>-254195.0537047522</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4106,18 +3785,15 @@
         <v>-254195.0537047522</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4142,18 +3818,15 @@
         <v>-239902.2221322751</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4178,18 +3851,15 @@
         <v>-227531.3907322751</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4214,18 +3884,15 @@
         <v>-236031.3907322751</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4252,16 +3919,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4286,18 +3950,15 @@
         <v>-225401.9615060092</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4324,16 +3985,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4360,16 +4018,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4394,18 +4049,15 @@
         <v>-227462.4731060092</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4430,18 +4082,15 @@
         <v>-227362.4731060092</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4466,18 +4115,15 @@
         <v>-229685.4730060092</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4502,18 +4148,15 @@
         <v>-223995.2616503192</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4538,18 +4181,15 @@
         <v>-224843.4977503306</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4574,18 +4214,15 @@
         <v>-224943.4977503306</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4610,18 +4247,15 @@
         <v>-224933.4977503306</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4646,18 +4280,15 @@
         <v>-238496.5666503306</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4684,16 +4315,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4720,16 +4348,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4756,16 +4381,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4792,16 +4414,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4828,16 +4447,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4864,16 +4480,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4900,16 +4513,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4936,16 +4546,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4972,16 +4579,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5008,16 +4612,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5044,16 +4645,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5080,16 +4678,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5116,16 +4711,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5152,16 +4744,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5188,16 +4777,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5224,16 +4810,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5260,16 +4843,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5296,16 +4876,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5332,16 +4909,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5368,16 +4942,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5404,16 +4975,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5440,16 +5008,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5476,16 +5041,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5512,16 +5074,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5548,16 +5107,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5584,16 +5140,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5620,18 +5173,15 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12006.8918976788</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>32566.9318976788</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4591.152802321198</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4408.582202321198</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-41847.6086023212</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1771,11 +1771,17 @@
         <v>-257560.5826575405</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>84.02</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1810,17 @@
         <v>-257560.5826575405</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>84.01000000000001</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1849,17 @@
         <v>-265480.5826575404</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>84.01000000000001</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,15 +1888,17 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>83.8</v>
       </c>
-      <c r="J45" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,17 +1927,15 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="J46" t="n">
-        <v>83.8</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L46" t="n">
@@ -1948,17 +1966,13 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J47" t="n">
-        <v>83.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L47" t="n">
@@ -1989,15 +2003,17 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="J48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2026,17 +2042,15 @@
         <v>-265293.7781575404</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="J49" t="n">
-        <v>83.90000000000001</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L49" t="n">
@@ -2067,15 +2081,15 @@
         <v>-264454.7775575404</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2106,11 +2120,17 @@
         <v>-294122.1435575404</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>84.26000000000001</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2139,15 +2159,17 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>83.8</v>
       </c>
-      <c r="J52" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2176,15 +2198,15 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>83.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2215,17 +2237,15 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>84.26000000000001</v>
       </c>
-      <c r="J54" t="n">
-        <v>83.8</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2256,15 +2276,15 @@
         <v>-292922.1435575404</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="J55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2296,12 +2316,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2335,9 +2353,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2374,9 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2413,9 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2452,9 +2464,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2491,9 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2530,9 +2538,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2566,12 +2572,12 @@
         <v>-286766.4260575403</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2605,12 +2611,12 @@
         <v>-295295.9492575403</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,12 +2650,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,12 +2689,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,12 +2728,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,14 +2767,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>84.41</v>
       </c>
-      <c r="J68" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2802,14 +2806,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>84.41</v>
       </c>
-      <c r="J69" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2843,14 +2845,12 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>84.41</v>
       </c>
-      <c r="J70" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2884,14 +2884,12 @@
         <v>-296266.4180575403</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>84.41</v>
       </c>
-      <c r="J71" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2925,14 +2923,12 @@
         <v>-294266.4180575403</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>84.33</v>
       </c>
-      <c r="J72" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2966,14 +2962,12 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>85.01000000000001</v>
       </c>
-      <c r="J73" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3007,14 +3001,12 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="J74" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,14 +3040,12 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="J75" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,14 +3079,12 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="J76" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3130,14 +3118,12 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>84.69</v>
       </c>
-      <c r="J77" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3171,14 +3157,12 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>85.12</v>
       </c>
-      <c r="J78" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3212,12 +3196,12 @@
         <v>-297438.8750575403</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>85.12</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,9 +3238,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3293,9 +3275,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3329,12 +3309,12 @@
         <v>-249787.6337575403</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>86</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,12 +3348,12 @@
         <v>-259702.7904575403</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>86.17</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3409,10 +3389,10 @@
       <c r="H84" t="n">
         <v>1</v>
       </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="I84" t="n">
+        <v>86.02</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,12 +3426,12 @@
         <v>-253280.6635575403</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>86.04000000000001</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3485,12 +3465,12 @@
         <v>-261280.6635575403</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3524,12 +3504,12 @@
         <v>-263280.6635575403</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>84.26000000000001</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3565,10 +3545,10 @@
       <c r="H88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="I88" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3605,9 +3585,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3644,9 +3622,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,19 +3656,17 @@
         <v>-230185.3908575403</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>84.26000000000001</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.034283171136957</v>
+        <v>1</v>
       </c>
       <c r="M91" t="inlineStr"/>
     </row>
@@ -3719,11 +3693,15 @@
         <v>-249640.4206772293</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3752,11 +3730,15 @@
         <v>-254195.0537047522</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3767,15 @@
         <v>-254195.0537047522</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3818,11 +3804,17 @@
         <v>-239902.2221322751</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>87.2</v>
+      </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +3843,17 @@
         <v>-227531.3907322751</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>87.58</v>
+      </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3884,11 +3882,15 @@
         <v>-236031.3907322751</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3921,7 +3923,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3950,11 +3956,17 @@
         <v>-225401.9615060092</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>86.51000000000001</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3987,7 +3999,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4020,7 +4036,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4049,11 +4069,15 @@
         <v>-227462.4731060092</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +4106,15 @@
         <v>-227362.4731060092</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4115,11 +4143,15 @@
         <v>-229685.4730060092</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +4180,15 @@
         <v>-223995.2616503192</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +4217,15 @@
         <v>-224843.4977503306</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4214,11 +4254,15 @@
         <v>-224943.4977503306</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4247,11 +4291,15 @@
         <v>-224933.4977503306</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4328,15 @@
         <v>-238496.5666503306</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4317,7 +4369,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4350,7 +4406,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4383,7 +4443,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4416,7 +4480,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4449,7 +4517,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4482,7 +4554,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4515,7 +4591,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4548,7 +4628,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4581,7 +4665,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4614,7 +4702,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4647,7 +4739,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4680,7 +4776,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4713,7 +4813,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4746,7 +4850,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4779,7 +4887,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4812,7 +4924,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4845,7 +4961,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4878,7 +4998,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4911,7 +5035,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4940,14 +5068,16 @@
         <v>-241814.7695503306</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -5171,7 +5301,7 @@
         <v>-277837.7059503306</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5182,6 +5312,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>12006.8918976788</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>32566.9318976788</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-4591.152802321198</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-4408.582202321198</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-41847.6086023212</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -1771,1091 +1771,947 @@
         <v>-257560.5826575405</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>84.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="E43" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>53.6568</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-257560.5826575405</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="C44" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>84.01000000000001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>7920</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-265480.5826575404</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>186.8045</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-265293.7781575404</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-265293.7781575404</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>531.1593</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-265293.7781575404</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F48" t="n">
+        <v>300</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-265293.7781575404</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="C49" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="D49" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="E49" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F49" t="n">
+        <v>135.8652</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-265293.7781575404</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>84</v>
+      </c>
+      <c r="C50" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="E50" t="n">
+        <v>84</v>
+      </c>
+      <c r="F50" t="n">
+        <v>839.0006</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-264454.7775575404</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>84</v>
+      </c>
+      <c r="C51" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="D51" t="n">
+        <v>84</v>
+      </c>
+      <c r="E51" t="n">
+        <v>83.8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>29667.366</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-294122.1435575404</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="C52" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="E52" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-292922.1435575404</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="E53" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14171.8625</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-292922.1435575404</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="C54" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="E54" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="F54" t="n">
+        <v>26130</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-292922.1435575404</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="C55" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="D55" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>84.26000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10431.5138</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-292922.1435575404</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="C56" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>84.69</v>
+      </c>
+      <c r="E56" t="n">
+        <v>84.09999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>5179.8098</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-298101.9533575404</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>84</v>
+      </c>
+      <c r="C57" t="n">
+        <v>84</v>
+      </c>
+      <c r="D57" t="n">
+        <v>84</v>
+      </c>
+      <c r="E57" t="n">
+        <v>84</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-299101.9533575404</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>84</v>
+      </c>
+      <c r="C58" t="n">
+        <v>84</v>
+      </c>
+      <c r="D58" t="n">
+        <v>84</v>
+      </c>
+      <c r="E58" t="n">
+        <v>84</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1564.2139</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-299101.9533575404</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="C59" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D59" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>355.5273</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-298746.4260575403</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="C60" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>85.17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>84.73999999999999</v>
+      </c>
+      <c r="F60" t="n">
+        <v>5980</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-292766.4260575403</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="C61" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="D61" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="E61" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-296766.4260575403</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="C62" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D62" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>85.05</v>
+      </c>
+      <c r="F62" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-286766.4260575403</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="C63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="E63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-286766.4260575403</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="C64" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="E64" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="F64" t="n">
+        <v>8529.5232</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-295295.9492575403</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="C65" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D65" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E65" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="F65" t="n">
+        <v>359.904</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="C66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="F66" t="n">
+        <v>38.0996</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="C67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="F67" t="n">
+        <v>768.3131</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D68" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E68" t="n">
+        <v>83.94</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6901.7038</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="C69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="E69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="F69" t="n">
+        <v>700.2827</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J69" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="C70" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="D70" t="n">
+        <v>84.43000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="F70" t="n">
+        <v>6833.355</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-295655.8532575403</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="C43" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="D43" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="E43" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="F43" t="n">
-        <v>53.6568</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-257560.5826575405</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="C44" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="E44" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="F44" t="n">
-        <v>7920</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-265480.5826575404</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>84.01000000000001</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>186.8045</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>531.1593</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F48" t="n">
-        <v>300</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="C49" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="D49" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="E49" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="F49" t="n">
-        <v>135.8652</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>84</v>
-      </c>
-      <c r="C50" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="D50" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="E50" t="n">
-        <v>84</v>
-      </c>
-      <c r="F50" t="n">
-        <v>839.0006</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-264454.7775575404</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>84</v>
-      </c>
-      <c r="C51" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>84</v>
-      </c>
-      <c r="E51" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="F51" t="n">
-        <v>29667.366</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-294122.1435575404</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="C52" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="D52" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="E52" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1200</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>83.8</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="D53" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="E53" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>14171.8625</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="C54" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="D54" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="E54" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="F54" t="n">
-        <v>26130</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="C55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="D55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="E55" t="n">
-        <v>84.26000000000001</v>
-      </c>
-      <c r="F55" t="n">
-        <v>10431.5138</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="C56" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="E56" t="n">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5179.8098</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-298101.9533575404</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>84</v>
-      </c>
-      <c r="C57" t="n">
-        <v>84</v>
-      </c>
-      <c r="D57" t="n">
-        <v>84</v>
-      </c>
-      <c r="E57" t="n">
-        <v>84</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-299101.9533575404</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>84</v>
-      </c>
-      <c r="C58" t="n">
-        <v>84</v>
-      </c>
-      <c r="D58" t="n">
-        <v>84</v>
-      </c>
-      <c r="E58" t="n">
-        <v>84</v>
-      </c>
-      <c r="F58" t="n">
-        <v>1564.2139</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-299101.9533575404</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="C59" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="D59" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="E59" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="F59" t="n">
-        <v>355.5273</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-298746.4260575403</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>84.73999999999999</v>
-      </c>
-      <c r="C60" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="D60" t="n">
-        <v>85.17</v>
-      </c>
-      <c r="E60" t="n">
-        <v>84.73999999999999</v>
-      </c>
-      <c r="F60" t="n">
-        <v>5980</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-292766.4260575403</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="C61" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="D61" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="E61" t="n">
-        <v>84.94</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-296766.4260575403</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>85.05</v>
-      </c>
-      <c r="C62" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="D62" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>85.05</v>
-      </c>
-      <c r="F62" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-286766.4260575403</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="C63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="E63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="F63" t="n">
-        <v>12000</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-286766.4260575403</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="C64" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="D64" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="E64" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="F64" t="n">
-        <v>8529.5232</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-295295.9492575403</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="C65" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D65" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="E65" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="F65" t="n">
-        <v>359.904</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="C66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="E66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="F66" t="n">
-        <v>38.0996</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="C67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="E67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="F67" t="n">
-        <v>768.3131</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>83.94</v>
-      </c>
-      <c r="C68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="E68" t="n">
-        <v>83.94</v>
-      </c>
-      <c r="F68" t="n">
-        <v>6901.7038</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="C69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="E69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="F69" t="n">
-        <v>700.2827</v>
-      </c>
-      <c r="G69" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="C70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="D70" t="n">
-        <v>84.43000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="F70" t="n">
-        <v>6833.355</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2889,7 +2745,9 @@
       <c r="I71" t="n">
         <v>84.41</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,7 +2786,9 @@
       <c r="I72" t="n">
         <v>84.33</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2962,12 +2822,12 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3001,12 +2861,12 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,7 +2905,9 @@
       <c r="I75" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,12 +2941,12 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,12 +2980,12 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3157,12 +3019,12 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>85.12</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,12 +3058,12 @@
         <v>-297438.8750575403</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>85.12</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,7 +3100,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3275,7 +3139,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3309,12 +3175,12 @@
         <v>-249787.6337575403</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3348,12 +3214,12 @@
         <v>-259702.7904575403</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>86.17</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3387,19 +3253,19 @@
         <v>-258462.7904575403</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>86.02</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>1.014310508233622</v>
       </c>
       <c r="M84" t="inlineStr"/>
     </row>
@@ -3426,17 +3292,11 @@
         <v>-253280.6635575403</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>86.04000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3465,17 +3325,11 @@
         <v>-261280.6635575403</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>86.26000000000001</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3504,17 +3358,11 @@
         <v>-263280.6635575403</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>86.23999999999999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3543,17 +3391,11 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>86.16</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3582,15 +3424,11 @@
         <v>-242794.5315575403</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3623,11 +3461,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3660,11 +3494,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3527,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3560,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3771,11 +3593,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3804,17 +3622,11 @@
         <v>-239902.2221322751</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>87.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3843,17 +3655,11 @@
         <v>-227531.3907322751</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>87.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +3692,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +3725,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3956,17 +3754,11 @@
         <v>-225401.9615060092</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86.51000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3999,11 +3791,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +3824,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4073,11 +3857,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4110,11 +3890,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +3923,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4184,11 +3956,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4221,11 +3989,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4258,11 +4022,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4055,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4332,11 +4088,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4369,11 +4121,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4154,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4443,11 +4187,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4220,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4517,11 +4253,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4554,11 +4286,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4591,11 +4319,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4352,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4385,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4702,11 +4418,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4739,11 +4451,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4776,11 +4484,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4813,11 +4517,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4850,11 +4550,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4887,11 +4583,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4924,11 +4616,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4961,11 +4649,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4998,11 +4682,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5035,11 +4715,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5068,16 +4744,14 @@
         <v>-241814.7695503306</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
       <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
@@ -5301,7 +4975,7 @@
         <v>-277837.7059503306</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5312,6 +4986,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -2332,10 +2332,14 @@
         <v>-298746.4260575403</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>84</v>
+      </c>
+      <c r="J59" t="n">
+        <v>84</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2368,8 +2372,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>84</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2411,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>84</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2464,10 +2480,14 @@
         <v>-286766.4260575403</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="J63" t="n">
+        <v>85.2</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
@@ -2500,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2556,19 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>85.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,10 +2597,14 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J66" t="n">
+        <v>84.41</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
@@ -2596,11 +2634,19 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J67" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2675,19 @@
         <v>-295655.8532575403</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="J68" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2670,7 +2724,11 @@
       <c r="J69" t="n">
         <v>84.41</v>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2709,7 +2767,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2822,9 +2880,11 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>85.01000000000001</v>
+      </c>
       <c r="J73" t="n">
         <v>84.41</v>
       </c>
@@ -2861,9 +2921,11 @@
         <v>-304241.4179575403</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>84.59999999999999</v>
+      </c>
       <c r="J74" t="n">
         <v>84.41</v>
       </c>
@@ -2941,9 +3003,11 @@
         <v>-304142.6448575403</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>84.59999999999999</v>
+      </c>
       <c r="J76" t="n">
         <v>84.41</v>
       </c>
@@ -2980,9 +3044,11 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>84.69</v>
+      </c>
       <c r="J77" t="n">
         <v>84.41</v>
       </c>
@@ -3019,9 +3085,11 @@
         <v>-304047.6448575403</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>85.12</v>
+      </c>
       <c r="J78" t="n">
         <v>84.41</v>
       </c>
@@ -3058,9 +3126,11 @@
         <v>-297438.8750575403</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>85.12</v>
+      </c>
       <c r="J79" t="n">
         <v>84.41</v>
       </c>
@@ -3253,316 +3323,370 @@
         <v>-258462.7904575403</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>84.41</v>
       </c>
       <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="C85" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>86.26000000000001</v>
+      </c>
+      <c r="E85" t="n">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5182.1269</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-253280.6635575403</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="C86" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="E86" t="n">
+        <v>86.23999999999999</v>
+      </c>
+      <c r="F86" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-261280.6635575403</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="D87" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>86.16</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-263280.6635575403</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="D88" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="E88" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>20486.132</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-242794.5315575403</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="C89" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="D89" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="E89" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="F89" t="n">
+        <v>2727.6578</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-242794.5315575403</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="C90" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="D90" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="E90" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1466.8617</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-242794.5315575403</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="C91" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="D91" t="n">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>86.92</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12609.1407</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-230185.3908575403</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>87.45999999999999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>87.02</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19455.029819689</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-249640.4206772293</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="C93" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>87.03</v>
+      </c>
+      <c r="F93" t="n">
+        <v>4554.633027522936</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-254195.0537047522</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>84.41</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L84" t="n">
-        <v>1.014310508233622</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="C85" t="n">
-        <v>86.26000000000001</v>
-      </c>
-      <c r="D85" t="n">
-        <v>86.26000000000001</v>
-      </c>
-      <c r="E85" t="n">
-        <v>86.20999999999999</v>
-      </c>
-      <c r="F85" t="n">
-        <v>5182.1269</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-253280.6635575403</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="C86" t="n">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="D86" t="n">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="E86" t="n">
-        <v>86.23999999999999</v>
-      </c>
-      <c r="F86" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-261280.6635575403</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="C87" t="n">
-        <v>86.16</v>
-      </c>
-      <c r="D87" t="n">
-        <v>86.2</v>
-      </c>
-      <c r="E87" t="n">
-        <v>86.16</v>
-      </c>
-      <c r="F87" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-263280.6635575403</v>
-      </c>
-      <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="D88" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="E88" t="n">
-        <v>86.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>20486.132</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="C89" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="D89" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="E89" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="F89" t="n">
-        <v>2727.6578</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="C90" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="D90" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="E90" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="F90" t="n">
-        <v>1466.8617</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="C91" t="n">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="D91" t="n">
-        <v>87.56999999999999</v>
-      </c>
-      <c r="E91" t="n">
-        <v>86.92</v>
-      </c>
-      <c r="F91" t="n">
-        <v>12609.1407</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-230185.3908575403</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="C92" t="n">
-        <v>87.45999999999999</v>
-      </c>
-      <c r="D92" t="n">
-        <v>87.45999999999999</v>
-      </c>
-      <c r="E92" t="n">
-        <v>87.02</v>
-      </c>
-      <c r="F92" t="n">
-        <v>19455.029819689</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-249640.4206772293</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>87.03</v>
-      </c>
-      <c r="C93" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="D93" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="E93" t="n">
-        <v>87.03</v>
-      </c>
-      <c r="F93" t="n">
-        <v>4554.633027522936</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-254195.0537047522</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>1.028052955810923</v>
       </c>
       <c r="M93" t="inlineStr"/>
     </row>
@@ -3688,7 +3812,7 @@
         <v>-236031.3907322751</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3721,7 +3845,7 @@
         <v>-245505.3041322751</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3787,7 +3911,7 @@
         <v>-229248.6595060092</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3820,7 +3944,7 @@
         <v>-229248.6595060092</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3886,7 +4010,7 @@
         <v>-227362.4731060092</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3919,7 +4043,7 @@
         <v>-229685.4730060092</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3952,7 +4076,7 @@
         <v>-223995.2616503192</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3985,7 +4109,7 @@
         <v>-224843.4977503306</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4018,7 +4142,7 @@
         <v>-224943.4977503306</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4051,7 +4175,7 @@
         <v>-224933.4977503306</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4084,7 +4208,7 @@
         <v>-238496.5666503306</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4117,7 +4241,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4150,7 +4274,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4183,7 +4307,7 @@
         <v>-239496.5666503306</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4216,7 +4340,7 @@
         <v>-245496.5666503306</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4249,7 +4373,7 @@
         <v>-244736.5666503306</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4282,7 +4406,7 @@
         <v>-244736.5666503306</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4348,7 +4472,7 @@
         <v>-242647.1919503306</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>

--- a/BackTest/2020-01-21 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-21 BackTest ENJ.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9449.340899999999</v>
       </c>
       <c r="G2" t="n">
-        <v>12006.8918976788</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>20560.04</v>
       </c>
       <c r="G3" t="n">
-        <v>32566.9318976788</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>37158.0847</v>
       </c>
       <c r="G4" t="n">
-        <v>-4591.152802321198</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>182.5706</v>
       </c>
       <c r="G5" t="n">
-        <v>-4408.582202321198</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>37439.0264</v>
       </c>
       <c r="G6" t="n">
-        <v>-41847.6086023212</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>102882.261</v>
       </c>
       <c r="G7" t="n">
-        <v>-144729.8696023212</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>11309.6381</v>
       </c>
       <c r="G8" t="n">
-        <v>-156039.5077023212</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>24987</v>
       </c>
       <c r="G9" t="n">
-        <v>-181026.5077023212</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>270.0238</v>
       </c>
       <c r="G10" t="n">
-        <v>-180756.4839023212</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>10.0001</v>
       </c>
       <c r="G11" t="n">
-        <v>-180746.4838023212</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,19 @@
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>-180734.4838023212</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>84.08</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +777,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>-180744.4838023212</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +813,23 @@
         <v>1376.0553</v>
       </c>
       <c r="G14" t="n">
-        <v>-182120.5391023212</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>84.16</v>
+      </c>
+      <c r="I14" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,23 @@
         <v>2380.668967980002</v>
       </c>
       <c r="G15" t="n">
-        <v>-179739.8701343412</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>83.52</v>
+      </c>
+      <c r="I15" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +889,21 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>-179727.8701343412</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +925,23 @@
         <v>14913.6456</v>
       </c>
       <c r="G17" t="n">
-        <v>-194641.5157343412</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>84.19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +963,23 @@
         <v>27043.4914</v>
       </c>
       <c r="G18" t="n">
-        <v>-221685.0071343412</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>83.58</v>
+      </c>
+      <c r="I18" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1001,23 @@
         <v>41394.2377</v>
       </c>
       <c r="G19" t="n">
-        <v>-263079.2448343412</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>83.56999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1039,23 @@
         <v>28006</v>
       </c>
       <c r="G20" t="n">
-        <v>-235073.2448343412</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>83.45</v>
+      </c>
+      <c r="I20" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1077,23 @@
         <v>10980.1071</v>
       </c>
       <c r="G21" t="n">
-        <v>-246053.3519343412</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>84.09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1115,21 @@
         <v>12</v>
       </c>
       <c r="G22" t="n">
-        <v>-246041.3519343412</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1151,21 @@
         <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>-246041.3519343412</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1187,21 @@
         <v>1037.5885</v>
       </c>
       <c r="G24" t="n">
-        <v>-247078.9404343412</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1223,21 @@
         <v>1280</v>
       </c>
       <c r="G25" t="n">
-        <v>-245798.9404343412</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1259,21 @@
         <v>9183.1175</v>
       </c>
       <c r="G26" t="n">
-        <v>-245798.9404343412</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1295,21 @@
         <v>600</v>
       </c>
       <c r="G27" t="n">
-        <v>-246398.9404343412</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1331,21 @@
         <v>7086.1689</v>
       </c>
       <c r="G28" t="n">
-        <v>-246398.9404343412</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1367,21 @@
         <v>15.5471</v>
       </c>
       <c r="G29" t="n">
-        <v>-246383.3933343412</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1403,21 @@
         <v>10</v>
       </c>
       <c r="G30" t="n">
-        <v>-246373.3933343412</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1439,21 @@
         <v>100</v>
       </c>
       <c r="G31" t="n">
-        <v>-246473.3933343412</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1475,21 @@
         <v>540</v>
       </c>
       <c r="G32" t="n">
-        <v>-246473.3933343412</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1511,23 @@
         <v>536.4105</v>
       </c>
       <c r="G33" t="n">
-        <v>-245936.9828343412</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>83.67</v>
+      </c>
+      <c r="I33" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1549,23 @@
         <v>403.5573</v>
       </c>
       <c r="G34" t="n">
-        <v>-245936.9828343412</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="I34" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1587,23 @@
         <v>2802.2778</v>
       </c>
       <c r="G35" t="n">
-        <v>-248739.2606343412</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="I35" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1625,23 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>-248729.2606343412</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>83.67</v>
+      </c>
+      <c r="I36" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1663,23 @@
         <v>100</v>
       </c>
       <c r="G37" t="n">
-        <v>-248729.2606343412</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>84.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1701,21 @@
         <v>259.7375</v>
       </c>
       <c r="G38" t="n">
-        <v>-248729.2606343412</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1737,21 @@
         <v>53.46647680075947</v>
       </c>
       <c r="G39" t="n">
-        <v>-248675.7941575405</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1773,21 @@
         <v>25.2115</v>
       </c>
       <c r="G40" t="n">
-        <v>-248650.5826575405</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1809,21 @@
         <v>8010</v>
       </c>
       <c r="G41" t="n">
-        <v>-256660.5826575405</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1845,21 @@
         <v>900</v>
       </c>
       <c r="G42" t="n">
-        <v>-257560.5826575405</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1881,21 @@
         <v>53.6568</v>
       </c>
       <c r="G43" t="n">
-        <v>-257560.5826575405</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1917,21 @@
         <v>7920</v>
       </c>
       <c r="G44" t="n">
-        <v>-265480.5826575404</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1953,21 @@
         <v>186.8045</v>
       </c>
       <c r="G45" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1989,21 @@
         <v>8000</v>
       </c>
       <c r="G46" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2025,21 @@
         <v>531.1593</v>
       </c>
       <c r="G47" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2061,21 @@
         <v>300</v>
       </c>
       <c r="G48" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2097,21 @@
         <v>135.8652</v>
       </c>
       <c r="G49" t="n">
-        <v>-265293.7781575404</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2133,21 @@
         <v>839.0006</v>
       </c>
       <c r="G50" t="n">
-        <v>-264454.7775575404</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2169,21 @@
         <v>29667.366</v>
       </c>
       <c r="G51" t="n">
-        <v>-294122.1435575404</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2205,21 @@
         <v>1200</v>
       </c>
       <c r="G52" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2241,21 @@
         <v>14171.8625</v>
       </c>
       <c r="G53" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2277,21 @@
         <v>26130</v>
       </c>
       <c r="G54" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2313,21 @@
         <v>10431.5138</v>
       </c>
       <c r="G55" t="n">
-        <v>-292922.1435575404</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2349,21 @@
         <v>5179.8098</v>
       </c>
       <c r="G56" t="n">
-        <v>-298101.9533575404</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2385,21 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>-299101.9533575404</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2421,21 @@
         <v>1564.2139</v>
       </c>
       <c r="G58" t="n">
-        <v>-299101.9533575404</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,22 +2457,21 @@
         <v>355.5273</v>
       </c>
       <c r="G59" t="n">
-        <v>-298746.4260575403</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
-        <v>84</v>
-      </c>
-      <c r="J59" t="n">
-        <v>84</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2366,24 +2493,21 @@
         <v>5980</v>
       </c>
       <c r="G60" t="n">
-        <v>-292766.4260575403</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>84</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2405,24 +2529,21 @@
         <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>-296766.4260575403</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>84</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2444,18 +2565,21 @@
         <v>10000</v>
       </c>
       <c r="G62" t="n">
-        <v>-286766.4260575403</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,22 +2601,21 @@
         <v>12000</v>
       </c>
       <c r="G63" t="n">
-        <v>-286766.4260575403</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2514,24 +2637,21 @@
         <v>8529.5232</v>
       </c>
       <c r="G64" t="n">
-        <v>-295295.9492575403</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2553,26 +2673,21 @@
         <v>359.904</v>
       </c>
       <c r="G65" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="J65" t="n">
-        <v>85.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2594,22 +2709,21 @@
         <v>38.0996</v>
       </c>
       <c r="G66" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J66" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2631,26 +2745,21 @@
         <v>768.3131</v>
       </c>
       <c r="G67" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J67" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2672,26 +2781,21 @@
         <v>6901.7038</v>
       </c>
       <c r="G68" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J68" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2713,26 +2817,21 @@
         <v>700.2827</v>
       </c>
       <c r="G69" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J69" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2754,26 +2853,21 @@
         <v>6833.355</v>
       </c>
       <c r="G70" t="n">
-        <v>-295655.8532575403</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J70" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2795,26 +2889,21 @@
         <v>610.5648</v>
       </c>
       <c r="G71" t="n">
-        <v>-296266.4180575403</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="J71" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2836,26 +2925,21 @@
         <v>2000</v>
       </c>
       <c r="G72" t="n">
-        <v>-294266.4180575403</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
-        <v>84.33</v>
-      </c>
-      <c r="J72" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2877,26 +2961,21 @@
         <v>9974.999900000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-304241.4179575403</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="J73" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2918,26 +2997,21 @@
         <v>179.5726</v>
       </c>
       <c r="G74" t="n">
-        <v>-304241.4179575403</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="J74" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2959,26 +3033,21 @@
         <v>98.7731</v>
       </c>
       <c r="G75" t="n">
-        <v>-304241.4179575403</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="J75" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3000,26 +3069,21 @@
         <v>98.7731</v>
       </c>
       <c r="G76" t="n">
-        <v>-304142.6448575403</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="n">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="J76" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3041,26 +3105,21 @@
         <v>95</v>
       </c>
       <c r="G77" t="n">
-        <v>-304047.6448575403</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="n">
-        <v>84.69</v>
-      </c>
-      <c r="J77" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3082,26 +3141,21 @@
         <v>5804.9639</v>
       </c>
       <c r="G78" t="n">
-        <v>-304047.6448575403</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="n">
-        <v>85.12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3123,26 +3177,21 @@
         <v>6608.7698</v>
       </c>
       <c r="G79" t="n">
-        <v>-297438.8750575403</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
-        <v>85.12</v>
-      </c>
-      <c r="J79" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>84.08</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3164,24 +3213,21 @@
         <v>804.7257</v>
       </c>
       <c r="G80" t="n">
-        <v>-297438.8750575403</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3203,24 +3249,21 @@
         <v>6818.7302</v>
       </c>
       <c r="G81" t="n">
-        <v>-290620.1448575403</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3242,24 +3285,21 @@
         <v>40832.5111</v>
       </c>
       <c r="G82" t="n">
-        <v>-249787.6337575403</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3281,24 +3321,21 @@
         <v>9915.1567</v>
       </c>
       <c r="G83" t="n">
-        <v>-259702.7904575403</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3320,24 +3357,21 @@
         <v>1240</v>
       </c>
       <c r="G84" t="n">
-        <v>-258462.7904575403</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3359,24 +3393,21 @@
         <v>5182.1269</v>
       </c>
       <c r="G85" t="n">
-        <v>-253280.6635575403</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3398,24 +3429,21 @@
         <v>8000</v>
       </c>
       <c r="G86" t="n">
-        <v>-261280.6635575403</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3437,24 +3465,21 @@
         <v>2000</v>
       </c>
       <c r="G87" t="n">
-        <v>-263280.6635575403</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3476,24 +3501,21 @@
         <v>20486.132</v>
       </c>
       <c r="G88" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3515,24 +3537,21 @@
         <v>2727.6578</v>
       </c>
       <c r="G89" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3554,24 +3573,21 @@
         <v>1466.8617</v>
       </c>
       <c r="G90" t="n">
-        <v>-242794.5315575403</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3593,24 +3609,21 @@
         <v>12609.1407</v>
       </c>
       <c r="G91" t="n">
-        <v>-230185.3908575403</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3632,24 +3645,21 @@
         <v>19455.029819689</v>
       </c>
       <c r="G92" t="n">
-        <v>-249640.4206772293</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3671,24 +3681,21 @@
         <v>4554.633027522936</v>
       </c>
       <c r="G93" t="n">
-        <v>-254195.0537047522</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>84.41</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1.028052955810923</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3710,18 +3717,21 @@
         <v>11930</v>
       </c>
       <c r="G94" t="n">
-        <v>-254195.0537047522</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3743,18 +3753,21 @@
         <v>14292.83157247706</v>
       </c>
       <c r="G95" t="n">
-        <v>-239902.2221322751</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3776,18 +3789,21 @@
         <v>12370.8314</v>
       </c>
       <c r="G96" t="n">
-        <v>-227531.3907322751</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3809,18 +3825,21 @@
         <v>8500</v>
       </c>
       <c r="G97" t="n">
-        <v>-236031.3907322751</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>84.08</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1.026993339676499</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3842,18 +3861,15 @@
         <v>9473.913399999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-245505.3041322751</v>
-      </c>
-      <c r="H98" t="n">
         <v>2</v>
       </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3875,18 +3891,15 @@
         <v>20103.34262626599</v>
       </c>
       <c r="G99" t="n">
-        <v>-225401.9615060092</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3908,18 +3921,15 @@
         <v>3846.698</v>
       </c>
       <c r="G100" t="n">
-        <v>-229248.6595060092</v>
-      </c>
-      <c r="H100" t="n">
         <v>2</v>
       </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3941,18 +3951,15 @@
         <v>500</v>
       </c>
       <c r="G101" t="n">
-        <v>-229248.6595060092</v>
-      </c>
-      <c r="H101" t="n">
         <v>2</v>
       </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3974,18 +3981,15 @@
         <v>1786.1864</v>
       </c>
       <c r="G102" t="n">
-        <v>-227462.4731060092</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4007,18 +4011,15 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>-227362.4731060092</v>
-      </c>
-      <c r="H103" t="n">
         <v>2</v>
       </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4040,18 +4041,15 @@
         <v>2322.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>-229685.4730060092</v>
-      </c>
-      <c r="H104" t="n">
         <v>2</v>
       </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4073,18 +4071,15 @@
         <v>5690.211355689989</v>
       </c>
       <c r="G105" t="n">
-        <v>-223995.2616503192</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4106,18 +4101,15 @@
         <v>848.2361000114169</v>
       </c>
       <c r="G106" t="n">
-        <v>-224843.4977503306</v>
-      </c>
-      <c r="H106" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4139,18 +4131,15 @@
         <v>100</v>
       </c>
       <c r="G107" t="n">
-        <v>-224943.4977503306</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4172,18 +4161,15 @@
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>-224933.4977503306</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4205,18 +4191,15 @@
         <v>13563.0689</v>
       </c>
       <c r="G109" t="n">
-        <v>-238496.5666503306</v>
-      </c>
-      <c r="H109" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4238,18 +4221,15 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>-239496.5666503306</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4271,18 +4251,15 @@
         <v>1830.5491</v>
       </c>
       <c r="G111" t="n">
-        <v>-239496.5666503306</v>
-      </c>
-      <c r="H111" t="n">
         <v>2</v>
       </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4304,18 +4281,15 @@
         <v>407.1221</v>
       </c>
       <c r="G112" t="n">
-        <v>-239496.5666503306</v>
-      </c>
-      <c r="H112" t="n">
         <v>2</v>
       </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4337,18 +4311,15 @@
         <v>6000</v>
       </c>
       <c r="G113" t="n">
-        <v>-245496.5666503306</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4370,18 +4341,15 @@
         <v>760</v>
       </c>
       <c r="G114" t="n">
-        <v>-244736.5666503306</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4403,18 +4371,15 @@
         <v>3058.4902</v>
       </c>
       <c r="G115" t="n">
-        <v>-244736.5666503306</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4436,18 +4401,15 @@
         <v>2089.3747</v>
       </c>
       <c r="G116" t="n">
-        <v>-242647.1919503306</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4469,18 +4431,15 @@
         <v>6387.2947</v>
       </c>
       <c r="G117" t="n">
-        <v>-242647.1919503306</v>
-      </c>
-      <c r="H117" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4502,18 +4461,15 @@
         <v>12010</v>
       </c>
       <c r="G118" t="n">
-        <v>-254657.1919503306</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4535,18 +4491,15 @@
         <v>12698</v>
       </c>
       <c r="G119" t="n">
-        <v>-254657.1919503306</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4568,18 +4521,15 @@
         <v>1997.7</v>
       </c>
       <c r="G120" t="n">
-        <v>-256654.8919503306</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4601,18 +4551,15 @@
         <v>9600</v>
       </c>
       <c r="G121" t="n">
-        <v>-256654.8919503306</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4634,18 +4581,15 @@
         <v>362.3165</v>
       </c>
       <c r="G122" t="n">
-        <v>-257017.2084503306</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4667,18 +4611,15 @@
         <v>25333.5</v>
       </c>
       <c r="G123" t="n">
-        <v>-231683.7084503306</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4700,18 +4641,15 @@
         <v>844.1835</v>
       </c>
       <c r="G124" t="n">
-        <v>-232527.8919503306</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4733,18 +4671,15 @@
         <v>1005.7851</v>
       </c>
       <c r="G125" t="n">
-        <v>-231522.1068503306</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4766,18 +4701,15 @@
         <v>13.1667</v>
       </c>
       <c r="G126" t="n">
-        <v>-231535.2735503306</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4799,18 +4731,15 @@
         <v>14171.0919</v>
       </c>
       <c r="G127" t="n">
-        <v>-231535.2735503306</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4832,18 +4761,15 @@
         <v>10000</v>
       </c>
       <c r="G128" t="n">
-        <v>-221535.2735503306</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4865,18 +4791,15 @@
         <v>20279.496</v>
       </c>
       <c r="G129" t="n">
-        <v>-241814.7695503306</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4898,18 +4821,15 @@
         <v>10463.1175</v>
       </c>
       <c r="G130" t="n">
-        <v>-252277.8870503306</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4931,18 +4851,15 @@
         <v>600.4048</v>
       </c>
       <c r="G131" t="n">
-        <v>-252878.2918503306</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4964,18 +4881,15 @@
         <v>9701.2039</v>
       </c>
       <c r="G132" t="n">
-        <v>-252878.2918503306</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4997,18 +4911,15 @@
         <v>32623.0501</v>
       </c>
       <c r="G133" t="n">
-        <v>-285501.3419503306</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5030,18 +4941,15 @@
         <v>2382</v>
       </c>
       <c r="G134" t="n">
-        <v>-283119.3419503306</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5063,18 +4971,15 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>-283019.3419503306</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5096,18 +5001,15 @@
         <v>5181.636</v>
       </c>
       <c r="G136" t="n">
-        <v>-277837.7059503306</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
